--- a/数据整理/stocks/港股/02601-中国太保.xlsx
+++ b/数据整理/stocks/港股/02601-中国太保.xlsx
@@ -451,323 +451,433 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>009846</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富兰克林国海港股通远见价值混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>16.27</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.70</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3579</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007592</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏价值精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.82</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2505</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008488</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华商恒益稳健混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>60.25</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1305</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009242</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中加核心智造混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.24</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0832</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>460010</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华泰柏瑞亚洲领导企业混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>97.93</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.77</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0763</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>006578</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>泰康中证港股通非银行金融主题指数A</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>94.24</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>6.70</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0596</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>501310</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华宝标普沪港深中国增强价值指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0490</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>006579</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>泰康中证港股通非银行金融主题指数C</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>94.24</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>6.70</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0368</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009243</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中加核心智造混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>85.24</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>007397</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>华宝标普沪港深中国增强价值指数（LOF）C</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>94.52</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>3.14</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>501310</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>华宝标普沪港深中国增强价值指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>94.52</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>3.14</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>460010</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>华泰柏瑞亚洲领导企业混合(QDII)</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>97.93</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>8.77</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>008488</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>华商恒益稳健混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>60.25</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>3.33</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>007592</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>华夏价值精选混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>87.82</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>4.08</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>009242</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>中加核心智造混合A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>85.24</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>4.14</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>009243</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>中加核心智造混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>85.24</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>4.14</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>009846</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>富兰克林国海港股通远见价值混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>87.70</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>2.20</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>7</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -777,7 +887,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -798,15 +908,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -818,26 +938,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005255</t>
+          <t>010723</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>浦银安盛港股通量化优选灵活配置混合</t>
+          <t>中欧价值成长混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>89.61</t>
+          <t>46.81</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2.54</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>7</v>
+          <t>81.19</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.0222</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -846,26 +976,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009960</t>
+          <t>010894</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>银华多元机遇混合</t>
+          <t>鹏华汇智优选混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>87.65</t>
+          <t>113.82</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.10</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>7</v>
+          <t>47.04</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.8666</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -874,26 +1014,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>009984</t>
+          <t>010678</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>鹏华启航两年封闭运作混合</t>
+          <t>中欧均衡成长混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>94.26</t>
+          <t>32.12</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2.77</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>10</v>
+          <t>84.63</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.4968</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -902,26 +1052,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>006578</t>
+          <t>010333</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>泰康中证港股通非银行金融主题指数A</t>
+          <t>华夏核心资产混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>94.31</t>
+          <t>69.13</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>6.60</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>5</v>
+          <t>65.06</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.1476</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -930,26 +1090,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>006579</t>
+          <t>009960</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>泰康中证港股通非银行金融主题指数C</t>
+          <t>银华多元机遇混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>94.31</t>
+          <t>24.52</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>6.60</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>5</v>
+          <t>87.65</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7601</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -958,26 +1128,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>010333</t>
+          <t>009984</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>华夏核心资产混合A</t>
+          <t>鹏华启航两年封闭运作混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>65.06</t>
+          <t>16.53</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1.66</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>9</v>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4579</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -986,26 +1166,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>010334</t>
+          <t>007592</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>华夏核心资产混合C</t>
+          <t>华夏价值精选混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>65.06</t>
+          <t>4.80</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.66</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>9</v>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2429</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -1014,26 +1204,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>010678</t>
+          <t>010334</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>中欧均衡成长混合A</t>
+          <t>华夏核心资产混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>84.63</t>
+          <t>10.86</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>4.66</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>3</v>
+          <t>65.06</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1803</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="10">
@@ -1042,26 +1242,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>010679</t>
+          <t>010724</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>中欧均衡成长混合C</t>
+          <t>中欧价值成长混合C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>84.63</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>4.66</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>3</v>
+          <t>81.19</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1620</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="11">
@@ -1070,26 +1280,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>010723</t>
+          <t>009242</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>中欧价值成长混合A</t>
+          <t>中加核心智造混合A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>81.19</t>
+          <t>2.06</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>4.32</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>4</v>
+          <t>81.84</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1007</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="12">
@@ -1098,26 +1318,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>010724</t>
+          <t>010895</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>中欧价值成长混合C</t>
+          <t>鹏华汇智优选混合C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>81.19</t>
+          <t>5.58</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>4.32</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>4</v>
+          <t>47.04</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0915</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="13">
@@ -1126,26 +1356,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>010894</t>
+          <t>010679</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>鹏华汇智优选混合A</t>
+          <t>中欧均衡成长混合C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>47.04</t>
+          <t>1.91</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1.64</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>6</v>
+          <t>84.63</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0890</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="14">
@@ -1154,26 +1394,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>010895</t>
+          <t>006578</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>鹏华汇智优选混合C</t>
+          <t>泰康中证港股通非银行金融主题指数A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>47.04</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>1.64</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>6</v>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0746</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="15">
@@ -1182,26 +1432,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>007592</t>
+          <t>009500</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>华夏价值精选混合</t>
+          <t>国寿安保高股息混合A</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>92.60</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>5.06</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>4</v>
+          <t>80.51</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0384</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="16">
@@ -1210,26 +1470,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>009500</t>
+          <t>006579</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>国寿安保高股息混合A</t>
+          <t>泰康中证港股通非银行金融主题指数C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>80.51</t>
+          <t>0.55</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>3.88</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>7</v>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0363</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="17">
@@ -1238,25 +1508,35 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>009501</t>
+          <t>005255</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>国寿安保高股息混合C</t>
+          <t>浦银安盛港股通量化优选灵活配置混合</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>80.51</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>3.88</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
+          <t>89.61</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
         <v>7</v>
       </c>
     </row>
@@ -1266,25 +1546,35 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>009242</t>
+          <t>009243</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>中加核心智造混合A</t>
+          <t>中加核心智造混合C</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
           <t>81.84</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>4.89</t>
         </is>
       </c>
-      <c r="F18" t="n">
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1294,26 +1584,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>009243</t>
+          <t>009501</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>中加核心智造混合C</t>
+          <t>国寿安保高股息混合C</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>81.84</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>4.89</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>5</v>
+          <t>80.51</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/港股/02601-中国太保.xlsx
+++ b/数据整理/stocks/港股/02601-中国太保.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1619,4 +1620,668 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011333</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华品质优选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>66.28</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>55.66</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.2867</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010723</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>44.61</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>82.06</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.4855</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010678</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧均衡成长混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>30.69</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.0742</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011203</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>永赢惠添益混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.76</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2118</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009428</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏扬景沣六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>27.64</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>20.77</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1520</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011334</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华品质优选混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>55.66</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1428</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010724</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>82.06</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1089</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>460010</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华泰柏瑞亚洲领导企业混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>96.37</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0611</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010679</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中欧均衡成长混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0588</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009242</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中加核心智造混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>78.76</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0567</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006578</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>泰康中证港股通非银行金融主题指数A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0519</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009429</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>鹏扬景沣六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>8.07</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>20.77</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0444</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006579</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>泰康中证港股通非银行金融主题指数C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0260</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>003413</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华泰柏瑞新经济沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011204</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>永赢惠添益混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009243</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中加核心智造混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>78.76</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/02601-中国太保.xlsx
+++ b/数据整理/stocks/港股/02601-中国太保.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2284,4 +2285,402 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011333</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华品质优选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>54.44</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>73.96</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.1667</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011203</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>永赢惠添益混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2005</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009428</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏扬景沣六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>29.98</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>20.04</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1439</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011334</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华品质优选混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>73.96</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1389</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006578</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>泰康中证港股通非银行金融主题指数A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0484</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009429</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏扬景沣六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>20.04</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0371</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006579</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>泰康中证港股通非银行金融主题指数C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011204</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>永赢惠添益混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004098</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>前海开源港股通股息率50强股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>79.48</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/02601-中国太保.xlsx
+++ b/数据整理/stocks/港股/02601-中国太保.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2683,4 +2684,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.78</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>18</v>
+      </c>
+      <c r="D4" t="n">
+        <v>8.800000000000001</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>10</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.06</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/02601-中国太保.xlsx
+++ b/数据整理/stocks/港股/02601-中国太保.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2692,7 +2693,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2703,17 +2704,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2723,14 +2744,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>012010</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国泰享回报6个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>21.42</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>28.02</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1821</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>9</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.78</v>
       </c>
     </row>
     <row r="3">
@@ -2739,14 +2782,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>16</v>
-      </c>
-      <c r="D3" t="n">
-        <v>5.8</v>
+          <t>513690</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时恒生港股通高股息率ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>96.86</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0318</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -2755,14 +2820,120 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>012011</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国泰享回报6个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>28.02</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.78</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D4" t="n">
-        <v>8.800000000000001</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="5">
@@ -2771,13 +2942,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>18</v>
+      </c>
+      <c r="D5" t="n">
+        <v>8.800000000000001</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>10</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>1.06</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/02601-中国太保.xlsx
+++ b/数据整理/stocks/港股/02601-中国太保.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2863,7 +2864,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2874,17 +2875,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2894,14 +2915,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.22</v>
+          <t>012010</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国泰享回报6个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9.29</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>29.91</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0622</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -2910,14 +2953,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>9</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.78</v>
+          <t>001942</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源沪港深汇鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.39</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -2926,14 +2991,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>16</v>
-      </c>
-      <c r="D4" t="n">
-        <v>5.8</v>
+          <t>001943</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源沪港深汇鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.39</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -2942,14 +3029,136 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>012011</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国泰享回报6个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>29.91</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>9</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.78</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D5" t="n">
-        <v>8.800000000000001</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="6">
@@ -2958,13 +3167,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>18</v>
+      </c>
+      <c r="D6" t="n">
+        <v>8.800000000000001</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>10</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>1.06</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/02601-中国太保.xlsx
+++ b/数据整理/stocks/港股/02601-中国太保.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3072,7 +3073,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3083,17 +3084,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3103,14 +3124,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.07000000000000001</v>
+          <t>012010</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国泰享回报6个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8.57</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>29.86</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0651</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -3119,14 +3162,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.22</v>
+          <t>008134</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华优选价值股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.08</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0605</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -3135,14 +3200,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>9</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.78</v>
+          <t>011574</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华领航一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0479</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -3151,14 +3238,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>16</v>
-      </c>
-      <c r="D5" t="n">
-        <v>5.8</v>
+          <t>011575</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华领航一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0380</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -3167,14 +3276,152 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>012011</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国泰享回报6个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>29.86</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>9</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.78</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D6" t="n">
-        <v>8.800000000000001</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="7">
@@ -3183,13 +3430,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>18</v>
+      </c>
+      <c r="D7" t="n">
+        <v>8.800000000000001</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>10</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>1.06</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/02601-中国太保.xlsx
+++ b/数据整理/stocks/港股/02601-中国太保.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D2" t="n">
-        <v>0.21</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>0.22</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>2.78</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D6" t="n">
-        <v>5.8</v>
+        <v>2.78</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D7" t="n">
-        <v>8.800000000000001</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>18</v>
+      </c>
+      <c r="D8" t="n">
+        <v>8.800000000000001</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>10</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>1.06</v>
       </c>
     </row>
@@ -600,6 +617,328 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>012640</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华稳健鸿利一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0736</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008134</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华优选价值股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0481</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011574</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华领航一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0390</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>012010</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国泰享回报6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>29.75</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0390</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011575</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华领航一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0296</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012641</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华稳健鸿利一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012011</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国泰享回报6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>29.75</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -845,7 +1184,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1053,7 +1392,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1223,7 +1562,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1621,7 +1960,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2285,7 +2624,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3025,7 +3364,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/港股/02601-中国太保.xlsx
+++ b/数据整理/stocks/港股/02601-中国太保.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>0.23</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D3" t="n">
-        <v>0.21</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>0.22</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>2.78</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D7" t="n">
-        <v>5.8</v>
+        <v>2.78</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D8" t="n">
-        <v>8.800000000000001</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,466 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>18</v>
+      </c>
+      <c r="D9" t="n">
+        <v>8.800000000000001</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>10</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>1.06</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009846</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富兰克林国海港股通远见价值混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>16.27</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.70</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3579</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007592</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏价值精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.82</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2505</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008488</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华商恒益稳健混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>60.25</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1305</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009242</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中加核心智造混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.24</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0832</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>460010</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华泰柏瑞亚洲领导企业混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>97.93</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.77</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0763</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006578</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>泰康中证港股通非银行金融主题指数A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0596</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>501310</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华宝标普沪港深中国增强价值指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0490</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006579</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>泰康中证港股通非银行金融主题指数C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0368</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009243</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中加核心智造混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>85.24</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007397</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华宝标普沪港深中国增强价值指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +1070,290 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>012640</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华稳健鸿利一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0877</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>012010</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国泰享回报6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>29.80</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0740</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011574</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华领航一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0473</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011575</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华领航一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0343</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>012641</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华稳健鸿利一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012011</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国泰享回报6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>29.80</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -938,7 +1675,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1184,7 +1921,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1392,7 +2129,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1562,7 +2299,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1960,7 +2697,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2624,7 +3361,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3362,440 +4099,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>009846</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>富兰克林国海港股通远见价值混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>16.27</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>87.70</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.20</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.3579</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>007592</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>华夏价值精选混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>6.14</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>87.82</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.08</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.2505</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>008488</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>华商恒益稳健混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>3.92</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>60.25</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.33</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.1305</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>009242</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>中加核心智造混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2.01</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>85.24</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.14</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0832</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>460010</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>华泰柏瑞亚洲领导企业混合(QDII)</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.87</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>97.93</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>8.77</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0763</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>006578</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>泰康中证港股通非银行金融主题指数A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.89</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>94.24</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>6.70</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0596</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>501310</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>华宝标普沪港深中国增强价值指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>1.56</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>94.52</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.14</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0490</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>006579</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>泰康中证港股通非银行金融主题指数C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.55</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>94.24</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>6.70</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0368</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>009243</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>中加核心智造混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.20</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>85.24</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>4.14</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0083</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>007397</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>华宝标普沪港深中国增强价值指数（LOF）C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.21</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>94.52</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>3.14</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0066</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>